--- a/SW Database.xlsx
+++ b/SW Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borgd\OneDrive\Pinball\__Homebrew\MPF-StarWars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\borgd\OneDrive\Pinball\__Homebrew\MPF_Star_Wars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC70ECC-FBAA-42D8-8F19-44D5D69119C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D2484D-F5F5-4E34-A5B9-528B1C7BCD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="8940" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{AA5DE0CD-8283-4095-B483-A14B9FA556F9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="213">
   <si>
     <t>STAR WARS REDUX LE</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>9?? Rollover wire switches</t>
+  </si>
+  <si>
+    <t>pbl</t>
   </si>
 </sst>
 </file>
@@ -5188,10 +5191,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820E0978-6DED-41EB-B6BB-A5F44BADF2FB}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -5369,7 +5372,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B33" s="8" t="s">
         <v>194</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>140</v>
       </c>
@@ -5385,7 +5388,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>158</v>
       </c>
@@ -5393,7 +5396,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>196</v>
       </c>
@@ -5401,12 +5404,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="M38" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B39" s="8" t="s">
         <v>197</v>
       </c>
@@ -5414,7 +5417,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>201</v>
       </c>
@@ -5422,20 +5425,23 @@
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="M41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B42" s="8" t="s">
         <v>204</v>
       </c>
       <c r="M42" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>202</v>
       </c>
@@ -5443,7 +5449,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>203</v>
       </c>
